--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,34 +11,404 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>D.O.B.</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
+    <t xml:space="preserve"> Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Bill Number</t>
+  </si>
+  <si>
+    <t>Party GSTIN</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>Amount Paid</t>
+  </si>
+  <si>
+    <t>Amount Due</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>gfd</t>
+  </si>
+  <si>
+    <t>hfg</t>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>jdk</t>
+  </si>
+  <si>
+    <t>123132</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>4546</t>
+  </si>
+  <si>
+    <t>5465</t>
+  </si>
+  <si>
+    <t>135453</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>jk;</t>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>jklkj</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>40004</t>
+  </si>
+  <si>
+    <t>jhk gjyghgh j</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>169.92</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>9.92</t>
+  </si>
+  <si>
+    <t>Vivek Tarun</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>19328.40</t>
+  </si>
+  <si>
+    <t>19328</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>vivek tarun</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>3710</t>
+  </si>
+  <si>
+    <t>jdf lkdfsQ</t>
+  </si>
+  <si>
+    <t>12556</t>
+  </si>
+  <si>
+    <t>177790</t>
+  </si>
+  <si>
+    <t>abhishek bhadwa</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>2018-08-17</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>Rahul Patidar</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>123436</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>5345465</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>6230</t>
+  </si>
+  <si>
+    <t>23154</t>
+  </si>
+  <si>
+    <t>4666</t>
+  </si>
+  <si>
+    <t>115620</t>
+  </si>
+  <si>
+    <t>vivek</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>67458</t>
+  </si>
+  <si>
+    <t>4564</t>
+  </si>
+  <si>
+    <t>2132</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>581102</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>45656</t>
+  </si>
+  <si>
+    <t>1131355</t>
+  </si>
+  <si>
+    <t>VIVEK TARUN</t>
+  </si>
+  <si>
+    <t>3245</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>6151870</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3535</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivelk HajGJH </t>
+  </si>
+  <si>
+    <t>Vivel TAvNBGn</t>
+  </si>
+  <si>
+    <t>Vjdf asldljak klj lsajlk</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>3132132</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <family val="4"/>
+      <sz val="12"/>
+      <name val="Comic Sans MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -63,7 +433,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,45 +773,5996 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:O150"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="32" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25599.770833333332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>23779.770833333332</v>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" t="s">
+        <v>21</v>
+      </c>
+      <c r="L79" t="s">
+        <v>21</v>
+      </c>
+      <c r="M79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" t="s">
+        <v>21</v>
+      </c>
+      <c r="L80" t="s">
+        <v>21</v>
+      </c>
+      <c r="M80" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" t="s">
+        <v>21</v>
+      </c>
+      <c r="L81" t="s">
+        <v>21</v>
+      </c>
+      <c r="M81" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" t="s">
+        <v>21</v>
+      </c>
+      <c r="L82" t="s">
+        <v>21</v>
+      </c>
+      <c r="M82" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" t="s">
+        <v>21</v>
+      </c>
+      <c r="L83" t="s">
+        <v>21</v>
+      </c>
+      <c r="M83" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" t="s">
+        <v>21</v>
+      </c>
+      <c r="O83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" t="s">
+        <v>21</v>
+      </c>
+      <c r="L84" t="s">
+        <v>21</v>
+      </c>
+      <c r="M84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" t="s">
+        <v>21</v>
+      </c>
+      <c r="O84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" t="s">
+        <v>21</v>
+      </c>
+      <c r="M85" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" t="s">
+        <v>21</v>
+      </c>
+      <c r="L86" t="s">
+        <v>21</v>
+      </c>
+      <c r="M86" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" t="s">
+        <v>21</v>
+      </c>
+      <c r="L87" t="s">
+        <v>21</v>
+      </c>
+      <c r="M87" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" t="s">
+        <v>21</v>
+      </c>
+      <c r="O87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" t="s">
+        <v>21</v>
+      </c>
+      <c r="M88" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" t="s">
+        <v>21</v>
+      </c>
+      <c r="O89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>21</v>
+      </c>
+      <c r="L90" t="s">
+        <v>21</v>
+      </c>
+      <c r="M90" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" t="s">
+        <v>21</v>
+      </c>
+      <c r="L91" t="s">
+        <v>21</v>
+      </c>
+      <c r="M91" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" t="s">
+        <v>21</v>
+      </c>
+      <c r="M92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" t="s">
+        <v>21</v>
+      </c>
+      <c r="O92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+      <c r="F93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+      <c r="L93" t="s">
+        <v>21</v>
+      </c>
+      <c r="M93" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+      <c r="F94" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" t="s">
+        <v>21</v>
+      </c>
+      <c r="L94" t="s">
+        <v>21</v>
+      </c>
+      <c r="M94" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" t="s">
+        <v>21</v>
+      </c>
+      <c r="O94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" t="s">
+        <v>21</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" t="s">
+        <v>21</v>
+      </c>
+      <c r="L95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" t="s">
+        <v>21</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96" t="s">
+        <v>21</v>
+      </c>
+      <c r="L96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" t="s">
+        <v>21</v>
+      </c>
+      <c r="O96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>21</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" t="s">
+        <v>21</v>
+      </c>
+      <c r="O97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>21</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" t="s">
+        <v>21</v>
+      </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" t="s">
+        <v>21</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>21</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+      <c r="L99" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" t="s">
+        <v>21</v>
+      </c>
+      <c r="O99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" t="s">
+        <v>21</v>
+      </c>
+      <c r="L100" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" t="s">
+        <v>21</v>
+      </c>
+      <c r="O100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I101" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" t="s">
+        <v>21</v>
+      </c>
+      <c r="K101" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" t="s">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" t="s">
+        <v>21</v>
+      </c>
+      <c r="O101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>21</v>
+      </c>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J102" t="s">
+        <v>21</v>
+      </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
+      <c r="L102" t="s">
+        <v>21</v>
+      </c>
+      <c r="M102" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" t="s">
+        <v>21</v>
+      </c>
+      <c r="O102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+      <c r="I103" t="s">
+        <v>21</v>
+      </c>
+      <c r="J103" t="s">
+        <v>21</v>
+      </c>
+      <c r="K103" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" t="s">
+        <v>21</v>
+      </c>
+      <c r="M103" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" t="s">
+        <v>21</v>
+      </c>
+      <c r="O103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>21</v>
+      </c>
+      <c r="K104" t="s">
+        <v>21</v>
+      </c>
+      <c r="L104" t="s">
+        <v>21</v>
+      </c>
+      <c r="M104" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" t="s">
+        <v>21</v>
+      </c>
+      <c r="O104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" t="s">
+        <v>21</v>
+      </c>
+      <c r="H105" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" t="s">
+        <v>21</v>
+      </c>
+      <c r="J105" t="s">
+        <v>21</v>
+      </c>
+      <c r="K105" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" t="s">
+        <v>21</v>
+      </c>
+      <c r="M105" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" t="s">
+        <v>21</v>
+      </c>
+      <c r="O105" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" t="s">
+        <v>21</v>
+      </c>
+      <c r="J106" t="s">
+        <v>21</v>
+      </c>
+      <c r="K106" t="s">
+        <v>21</v>
+      </c>
+      <c r="L106" t="s">
+        <v>21</v>
+      </c>
+      <c r="M106" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" t="s">
+        <v>21</v>
+      </c>
+      <c r="O106" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" t="s">
+        <v>21</v>
+      </c>
+      <c r="I107" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" t="s">
+        <v>21</v>
+      </c>
+      <c r="K107" t="s">
+        <v>21</v>
+      </c>
+      <c r="L107" t="s">
+        <v>21</v>
+      </c>
+      <c r="M107" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" t="s">
+        <v>21</v>
+      </c>
+      <c r="O107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" t="s">
+        <v>21</v>
+      </c>
+      <c r="H108" t="s">
+        <v>21</v>
+      </c>
+      <c r="I108" t="s">
+        <v>21</v>
+      </c>
+      <c r="J108" t="s">
+        <v>21</v>
+      </c>
+      <c r="K108" t="s">
+        <v>21</v>
+      </c>
+      <c r="L108" t="s">
+        <v>21</v>
+      </c>
+      <c r="M108" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" t="s">
+        <v>21</v>
+      </c>
+      <c r="O108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" t="s">
+        <v>21</v>
+      </c>
+      <c r="J109" t="s">
+        <v>21</v>
+      </c>
+      <c r="K109" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" t="s">
+        <v>21</v>
+      </c>
+      <c r="O109" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H110" t="s">
+        <v>21</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" t="s">
+        <v>21</v>
+      </c>
+      <c r="O110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" t="s">
+        <v>21</v>
+      </c>
+      <c r="J111" t="s">
+        <v>21</v>
+      </c>
+      <c r="K111" t="s">
+        <v>21</v>
+      </c>
+      <c r="L111" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" t="s">
+        <v>21</v>
+      </c>
+      <c r="N111" t="s">
+        <v>21</v>
+      </c>
+      <c r="O111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" t="s">
+        <v>21</v>
+      </c>
+      <c r="H112" t="s">
+        <v>21</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>21</v>
+      </c>
+      <c r="K112" t="s">
+        <v>21</v>
+      </c>
+      <c r="L112" t="s">
+        <v>21</v>
+      </c>
+      <c r="M112" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" t="s">
+        <v>21</v>
+      </c>
+      <c r="O112" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" t="s">
+        <v>21</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>21</v>
+      </c>
+      <c r="K113" t="s">
+        <v>21</v>
+      </c>
+      <c r="L113" t="s">
+        <v>21</v>
+      </c>
+      <c r="M113" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" t="s">
+        <v>21</v>
+      </c>
+      <c r="O113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" t="s">
+        <v>21</v>
+      </c>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>21</v>
+      </c>
+      <c r="K114" t="s">
+        <v>21</v>
+      </c>
+      <c r="L114" t="s">
+        <v>21</v>
+      </c>
+      <c r="M114" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" t="s">
+        <v>21</v>
+      </c>
+      <c r="O114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" t="s">
+        <v>21</v>
+      </c>
+      <c r="H115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>21</v>
+      </c>
+      <c r="K115" t="s">
+        <v>21</v>
+      </c>
+      <c r="L115" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" t="s">
+        <v>21</v>
+      </c>
+      <c r="O115" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>21</v>
+      </c>
+      <c r="K116" t="s">
+        <v>21</v>
+      </c>
+      <c r="L116" t="s">
+        <v>21</v>
+      </c>
+      <c r="M116" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116" t="s">
+        <v>21</v>
+      </c>
+      <c r="O116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>21</v>
+      </c>
+      <c r="K117" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" t="s">
+        <v>21</v>
+      </c>
+      <c r="M117" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" t="s">
+        <v>21</v>
+      </c>
+      <c r="O117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" t="s">
+        <v>21</v>
+      </c>
+      <c r="H118" t="s">
+        <v>46</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>21</v>
+      </c>
+      <c r="K118" t="s">
+        <v>21</v>
+      </c>
+      <c r="L118" t="s">
+        <v>21</v>
+      </c>
+      <c r="M118" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" t="s">
+        <v>21</v>
+      </c>
+      <c r="O118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" t="s">
+        <v>37</v>
+      </c>
+      <c r="I119" t="s">
+        <v>47</v>
+      </c>
+      <c r="J119" t="s">
+        <v>21</v>
+      </c>
+      <c r="K119" t="s">
+        <v>48</v>
+      </c>
+      <c r="L119" t="s">
+        <v>48</v>
+      </c>
+      <c r="M119">
+        <v>17.7</v>
+      </c>
+      <c r="N119" t="s">
+        <v>49</v>
+      </c>
+      <c r="O119">
+        <v>0.6999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" t="s">
+        <v>21</v>
+      </c>
+      <c r="H120" t="s">
+        <v>46</v>
+      </c>
+      <c r="I120" t="s">
+        <v>50</v>
+      </c>
+      <c r="J120" t="s">
+        <v>21</v>
+      </c>
+      <c r="K120" t="s">
+        <v>42</v>
+      </c>
+      <c r="L120" t="s">
+        <v>42</v>
+      </c>
+      <c r="M120">
+        <v>59</v>
+      </c>
+      <c r="N120" t="s">
+        <v>51</v>
+      </c>
+      <c r="O120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s">
+        <v>37</v>
+      </c>
+      <c r="I121" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" t="s">
+        <v>52</v>
+      </c>
+      <c r="K121" t="s">
+        <v>52</v>
+      </c>
+      <c r="L121" t="s">
+        <v>52</v>
+      </c>
+      <c r="M121" t="s">
+        <v>52</v>
+      </c>
+      <c r="N121" t="s">
+        <v>52</v>
+      </c>
+      <c r="O121" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>21</v>
+      </c>
+      <c r="F122" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" t="s">
+        <v>32</v>
+      </c>
+      <c r="I122" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122">
+        <v>400</v>
+      </c>
+      <c r="K122" t="s">
+        <v>42</v>
+      </c>
+      <c r="L122" t="s">
+        <v>42</v>
+      </c>
+      <c r="M122">
+        <v>472</v>
+      </c>
+      <c r="N122" t="s">
+        <v>54</v>
+      </c>
+      <c r="O122">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>21</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>21</v>
+      </c>
+      <c r="H123" t="s">
+        <v>55</v>
+      </c>
+      <c r="I123" t="s">
+        <v>56</v>
+      </c>
+      <c r="J123">
+        <v>35872</v>
+      </c>
+      <c r="K123" t="s">
+        <v>42</v>
+      </c>
+      <c r="L123" t="s">
+        <v>42</v>
+      </c>
+      <c r="M123">
+        <v>42328.96</v>
+      </c>
+      <c r="N123" t="s">
+        <v>57</v>
+      </c>
+      <c r="O123">
+        <v>2324.959999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" t="s">
+        <v>19</v>
+      </c>
+      <c r="I124" t="s">
+        <v>59</v>
+      </c>
+      <c r="J124">
+        <v>144</v>
+      </c>
+      <c r="K124" t="s">
+        <v>42</v>
+      </c>
+      <c r="L124" t="s">
+        <v>42</v>
+      </c>
+      <c r="M124" t="s">
+        <v>60</v>
+      </c>
+      <c r="N124" t="s">
+        <v>61</v>
+      </c>
+      <c r="O124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s">
+        <v>64</v>
+      </c>
+      <c r="J125">
+        <v>16380</v>
+      </c>
+      <c r="K125" t="s">
+        <v>42</v>
+      </c>
+      <c r="L125" t="s">
+        <v>42</v>
+      </c>
+      <c r="M125" t="s">
+        <v>65</v>
+      </c>
+      <c r="N125" t="s">
+        <v>66</v>
+      </c>
+      <c r="O125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" t="s">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="s">
+        <v>21</v>
+      </c>
+      <c r="H126" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126" t="s">
+        <v>52</v>
+      </c>
+      <c r="K126" t="s">
+        <v>52</v>
+      </c>
+      <c r="L126" t="s">
+        <v>52</v>
+      </c>
+      <c r="M126" t="s">
+        <v>52</v>
+      </c>
+      <c r="N126" t="s">
+        <v>52</v>
+      </c>
+      <c r="O126" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" t="s">
+        <v>69</v>
+      </c>
+      <c r="J127">
+        <v>3150</v>
+      </c>
+      <c r="K127" t="s">
+        <v>42</v>
+      </c>
+      <c r="L127" t="s">
+        <v>42</v>
+      </c>
+      <c r="M127">
+        <v>3717</v>
+      </c>
+      <c r="N127" t="s">
+        <v>70</v>
+      </c>
+      <c r="O127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" t="s">
+        <v>21</v>
+      </c>
+      <c r="H128" t="s">
+        <v>31</v>
+      </c>
+      <c r="I128" t="s">
+        <v>69</v>
+      </c>
+      <c r="J128">
+        <v>3150</v>
+      </c>
+      <c r="K128" t="s">
+        <v>42</v>
+      </c>
+      <c r="L128" t="s">
+        <v>42</v>
+      </c>
+      <c r="M128">
+        <v>3717</v>
+      </c>
+      <c r="N128" t="s">
+        <v>70</v>
+      </c>
+      <c r="O128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" t="s">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>72</v>
+      </c>
+      <c r="J129">
+        <v>150672</v>
+      </c>
+      <c r="K129" t="s">
+        <v>42</v>
+      </c>
+      <c r="L129" t="s">
+        <v>42</v>
+      </c>
+      <c r="M129">
+        <v>177792.96</v>
+      </c>
+      <c r="N129" t="s">
+        <v>73</v>
+      </c>
+      <c r="O129">
+        <v>2.959999999991851</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="D130" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" t="s">
+        <v>76</v>
+      </c>
+      <c r="F130" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" t="s">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s">
+        <v>79</v>
+      </c>
+      <c r="J130">
+        <v>10000</v>
+      </c>
+      <c r="K130" t="s">
+        <v>42</v>
+      </c>
+      <c r="L130" t="s">
+        <v>42</v>
+      </c>
+      <c r="M130">
+        <v>11800</v>
+      </c>
+      <c r="N130" t="s">
+        <v>80</v>
+      </c>
+      <c r="O130">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>81</v>
+      </c>
+      <c r="D131" t="s">
+        <v>82</v>
+      </c>
+      <c r="E131" t="s">
+        <v>83</v>
+      </c>
+      <c r="F131" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" t="s">
+        <v>84</v>
+      </c>
+      <c r="J131">
+        <v>1176</v>
+      </c>
+      <c r="K131" t="s">
+        <v>42</v>
+      </c>
+      <c r="L131" t="s">
+        <v>42</v>
+      </c>
+      <c r="M131">
+        <v>1387.68</v>
+      </c>
+      <c r="N131" t="s">
+        <v>85</v>
+      </c>
+      <c r="O131">
+        <v>7.680000000000064</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132">
+        <v>252</v>
+      </c>
+      <c r="K132" t="s">
+        <v>42</v>
+      </c>
+      <c r="L132" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132">
+        <v>297.36</v>
+      </c>
+      <c r="N132" t="s">
+        <v>88</v>
+      </c>
+      <c r="O132">
+        <v>7.360000000000014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>89</v>
+      </c>
+      <c r="E133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F133" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" t="s">
+        <v>84</v>
+      </c>
+      <c r="J133">
+        <v>1176</v>
+      </c>
+      <c r="K133" t="s">
+        <v>42</v>
+      </c>
+      <c r="L133" t="s">
+        <v>42</v>
+      </c>
+      <c r="M133">
+        <v>1387.68</v>
+      </c>
+      <c r="N133" t="s">
+        <v>90</v>
+      </c>
+      <c r="O133">
+        <v>5.680000000000064</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>89</v>
+      </c>
+      <c r="E134" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" t="s">
+        <v>92</v>
+      </c>
+      <c r="I134" t="s">
+        <v>93</v>
+      </c>
+      <c r="J134">
+        <v>5285</v>
+      </c>
+      <c r="K134" t="s">
+        <v>42</v>
+      </c>
+      <c r="L134" t="s">
+        <v>42</v>
+      </c>
+      <c r="M134">
+        <v>6236.3</v>
+      </c>
+      <c r="N134" t="s">
+        <v>94</v>
+      </c>
+      <c r="O134">
+        <v>6.300000000000182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>89</v>
+      </c>
+      <c r="E135" t="s">
+        <v>95</v>
+      </c>
+      <c r="F135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" t="s">
+        <v>96</v>
+      </c>
+      <c r="J135">
+        <v>97986</v>
+      </c>
+      <c r="K135" t="s">
+        <v>42</v>
+      </c>
+      <c r="L135" t="s">
+        <v>42</v>
+      </c>
+      <c r="M135">
+        <v>115623.48</v>
+      </c>
+      <c r="N135" t="s">
+        <v>97</v>
+      </c>
+      <c r="O135">
+        <v>3.4799999999959255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D136" t="s">
+        <v>89</v>
+      </c>
+      <c r="E136" t="s">
+        <v>99</v>
+      </c>
+      <c r="F136" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" t="s">
+        <v>100</v>
+      </c>
+      <c r="I136" t="s">
+        <v>101</v>
+      </c>
+      <c r="J136">
+        <v>45580</v>
+      </c>
+      <c r="K136" t="s">
+        <v>92</v>
+      </c>
+      <c r="L136" t="s">
+        <v>102</v>
+      </c>
+      <c r="M136">
+        <v>67458.4</v>
+      </c>
+      <c r="N136" t="s">
+        <v>103</v>
+      </c>
+      <c r="O136">
+        <v>0.39999999999417923</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>87</v>
+      </c>
+      <c r="E137" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>105</v>
+      </c>
+      <c r="I137" t="s">
+        <v>106</v>
+      </c>
+      <c r="J137">
+        <v>492492</v>
+      </c>
+      <c r="K137" t="s">
+        <v>42</v>
+      </c>
+      <c r="L137" t="s">
+        <v>42</v>
+      </c>
+      <c r="M137">
+        <v>581140.56</v>
+      </c>
+      <c r="N137" t="s">
+        <v>107</v>
+      </c>
+      <c r="O137">
+        <v>38.56000000005588</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>108</v>
+      </c>
+      <c r="E138" t="s">
+        <v>109</v>
+      </c>
+      <c r="F138" t="s">
+        <v>21</v>
+      </c>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s">
+        <v>110</v>
+      </c>
+      <c r="J138">
+        <v>958776</v>
+      </c>
+      <c r="K138" t="s">
+        <v>42</v>
+      </c>
+      <c r="L138" t="s">
+        <v>42</v>
+      </c>
+      <c r="M138">
+        <v>1131355.68</v>
+      </c>
+      <c r="N138" t="s">
+        <v>111</v>
+      </c>
+      <c r="O138">
+        <v>0.6799999999348074</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" t="s">
+        <v>21</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139" t="s">
+        <v>37</v>
+      </c>
+      <c r="I139" t="s">
+        <v>52</v>
+      </c>
+      <c r="J139" t="s">
+        <v>52</v>
+      </c>
+      <c r="K139" t="s">
+        <v>52</v>
+      </c>
+      <c r="L139" t="s">
+        <v>52</v>
+      </c>
+      <c r="M139" t="s">
+        <v>52</v>
+      </c>
+      <c r="N139" t="s">
+        <v>52</v>
+      </c>
+      <c r="O139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>21</v>
+      </c>
+      <c r="E140" t="s">
+        <v>21</v>
+      </c>
+      <c r="F140" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" t="s">
+        <v>37</v>
+      </c>
+      <c r="I140" t="s">
+        <v>52</v>
+      </c>
+      <c r="J140" t="s">
+        <v>52</v>
+      </c>
+      <c r="K140" t="s">
+        <v>52</v>
+      </c>
+      <c r="L140" t="s">
+        <v>52</v>
+      </c>
+      <c r="M140" t="s">
+        <v>52</v>
+      </c>
+      <c r="N140" t="s">
+        <v>52</v>
+      </c>
+      <c r="O140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>112</v>
+      </c>
+      <c r="D141" t="s">
+        <v>89</v>
+      </c>
+      <c r="E141" t="s">
+        <v>113</v>
+      </c>
+      <c r="F141" t="s">
+        <v>21</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s">
+        <v>114</v>
+      </c>
+      <c r="J141">
+        <v>865242</v>
+      </c>
+      <c r="K141" t="s">
+        <v>115</v>
+      </c>
+      <c r="L141" t="s">
+        <v>116</v>
+      </c>
+      <c r="M141">
+        <v>6151870.62</v>
+      </c>
+      <c r="N141" t="s">
+        <v>117</v>
+      </c>
+      <c r="O141">
+        <v>0.6200000001117587</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" t="s">
+        <v>21</v>
+      </c>
+      <c r="F142" t="s">
+        <v>21</v>
+      </c>
+      <c r="H142" t="s">
+        <v>37</v>
+      </c>
+      <c r="I142" t="s">
+        <v>52</v>
+      </c>
+      <c r="J142" t="s">
+        <v>52</v>
+      </c>
+      <c r="K142" t="s">
+        <v>52</v>
+      </c>
+      <c r="L142" t="s">
+        <v>52</v>
+      </c>
+      <c r="M142" t="s">
+        <v>52</v>
+      </c>
+      <c r="N142" t="s">
+        <v>52</v>
+      </c>
+      <c r="O142" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" t="s">
+        <v>21</v>
+      </c>
+      <c r="E143" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" t="s">
+        <v>37</v>
+      </c>
+      <c r="I143" t="s">
+        <v>52</v>
+      </c>
+      <c r="J143" t="s">
+        <v>52</v>
+      </c>
+      <c r="K143" t="s">
+        <v>52</v>
+      </c>
+      <c r="L143" t="s">
+        <v>52</v>
+      </c>
+      <c r="M143" t="s">
+        <v>52</v>
+      </c>
+      <c r="N143" t="s">
+        <v>52</v>
+      </c>
+      <c r="O143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>112</v>
+      </c>
+      <c r="D144" t="s">
+        <v>118</v>
+      </c>
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="H144" t="s">
+        <v>37</v>
+      </c>
+      <c r="I144" t="s">
+        <v>52</v>
+      </c>
+      <c r="J144" t="s">
+        <v>52</v>
+      </c>
+      <c r="K144" t="s">
+        <v>52</v>
+      </c>
+      <c r="L144" t="s">
+        <v>52</v>
+      </c>
+      <c r="M144" t="s">
+        <v>52</v>
+      </c>
+      <c r="N144" t="s">
+        <v>52</v>
+      </c>
+      <c r="O144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D145" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" t="s">
+        <v>37</v>
+      </c>
+      <c r="I145" t="s">
+        <v>52</v>
+      </c>
+      <c r="J145" t="s">
+        <v>52</v>
+      </c>
+      <c r="K145" t="s">
+        <v>52</v>
+      </c>
+      <c r="L145" t="s">
+        <v>52</v>
+      </c>
+      <c r="M145" t="s">
+        <v>52</v>
+      </c>
+      <c r="N145" t="s">
+        <v>52</v>
+      </c>
+      <c r="O145" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I146" t="s">
+        <v>52</v>
+      </c>
+      <c r="J146" t="s">
+        <v>52</v>
+      </c>
+      <c r="K146" t="s">
+        <v>52</v>
+      </c>
+      <c r="L146" t="s">
+        <v>52</v>
+      </c>
+      <c r="M146" t="s">
+        <v>52</v>
+      </c>
+      <c r="N146" t="s">
+        <v>52</v>
+      </c>
+      <c r="O146" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>21</v>
+      </c>
+      <c r="E147" t="s">
+        <v>21</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="H147" t="s">
+        <v>37</v>
+      </c>
+      <c r="I147" t="s">
+        <v>52</v>
+      </c>
+      <c r="J147" t="s">
+        <v>52</v>
+      </c>
+      <c r="K147" t="s">
+        <v>52</v>
+      </c>
+      <c r="L147" t="s">
+        <v>52</v>
+      </c>
+      <c r="M147" t="s">
+        <v>52</v>
+      </c>
+      <c r="N147" t="s">
+        <v>52</v>
+      </c>
+      <c r="O147" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>122</v>
+      </c>
+      <c r="D148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" t="s">
+        <v>21</v>
+      </c>
+      <c r="H148" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" t="s">
+        <v>52</v>
+      </c>
+      <c r="K148" t="s">
+        <v>52</v>
+      </c>
+      <c r="L148" t="s">
+        <v>52</v>
+      </c>
+      <c r="M148" t="s">
+        <v>52</v>
+      </c>
+      <c r="N148" t="s">
+        <v>52</v>
+      </c>
+      <c r="O148" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" t="s">
+        <v>21</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149" t="s">
+        <v>37</v>
+      </c>
+      <c r="I149" t="s">
+        <v>52</v>
+      </c>
+      <c r="J149" t="s">
+        <v>52</v>
+      </c>
+      <c r="K149" t="s">
+        <v>52</v>
+      </c>
+      <c r="L149" t="s">
+        <v>52</v>
+      </c>
+      <c r="M149" t="s">
+        <v>52</v>
+      </c>
+      <c r="N149" t="s">
+        <v>52</v>
+      </c>
+      <c r="O149" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>112</v>
+      </c>
+      <c r="D150" t="s">
+        <v>124</v>
+      </c>
+      <c r="E150" t="s">
+        <v>125</v>
+      </c>
+      <c r="F150" t="s">
+        <v>21</v>
+      </c>
+      <c r="H150" t="s">
+        <v>37</v>
+      </c>
+      <c r="I150" t="s">
+        <v>52</v>
+      </c>
+      <c r="J150" t="s">
+        <v>52</v>
+      </c>
+      <c r="K150" t="s">
+        <v>52</v>
+      </c>
+      <c r="L150" t="s">
+        <v>52</v>
+      </c>
+      <c r="M150" t="s">
+        <v>52</v>
+      </c>
+      <c r="N150" t="s">
+        <v>52</v>
+      </c>
+      <c r="O150" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,30 @@
   </si>
   <si>
     <t>790</t>
+  </si>
+  <si>
+    <t>shgda</t>
+  </si>
+  <si>
+    <t>jlwdkas</t>
+  </si>
+  <si>
+    <t>kjl</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>131</t>
   </si>
 </sst>
 </file>
@@ -508,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
@@ -816,6 +840,334 @@
         <v>2.9600000000000364</v>
       </c>
     </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12">
+        <v>164.9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12">
+        <v>33.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13">
+        <v>164.9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>33.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14">
+        <v>164.9</v>
+      </c>
+      <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14">
+        <v>33.900000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7860</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11130</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>13234</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>-32224</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,27 +11,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Dealer - 09 - 2018</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Stock</t>
+    <t>Date</t>
   </si>
   <si>
     <t>Dealer</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>miscellaneous</t>
-  </si>
-  <si>
-    <t>Amount Pending</t>
-  </si>
-  <si>
-    <t>Profit</t>
+    <t>Cylinder Size</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>Amount Paid</t>
+  </si>
+  <si>
+    <t>Amount Due</t>
+  </si>
+  <si>
+    <t>2018-09-02</t>
+  </si>
+  <si>
+    <t>abhishek chu</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>7869</t>
   </si>
 </sst>
 </file>
@@ -415,60 +442,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="7" width="23" customWidth="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>7860</v>
-      </c>
-      <c r="D2">
-        <v>11130</v>
-      </c>
-      <c r="E2">
-        <v>13234</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>-32224</v>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>78600</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>70731</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Dealer - 09 - 2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Stock - whole - 2018</t>
   </si>
   <si>
     <t>Id</t>
@@ -22,7 +22,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Dealer</t>
+    <t>Cylinder Type</t>
   </si>
   <si>
     <t>Cylinder Size</t>
@@ -37,28 +37,19 @@
     <t>Net Amount</t>
   </si>
   <si>
-    <t>Amount Paid</t>
-  </si>
-  <si>
-    <t>Amount Due</t>
-  </si>
-  <si>
-    <t>2018-09-02</t>
-  </si>
-  <si>
-    <t>abhishek chu</t>
+    <t>2018-10-03</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>786</t>
-  </si>
-  <si>
-    <t>7869</t>
+    <t>700</t>
   </si>
 </sst>
 </file>
@@ -442,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="9" width="23" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -465,7 +456,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,40 +478,28 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
       <c r="G4">
-        <v>78600</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>70731</v>
+        <v>8400</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,45 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Stock - whole - 2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Profit - whole - 2018</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Cylinder Type</t>
-  </si>
-  <si>
-    <t>Cylinder Size</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Net Amount</t>
-  </si>
-  <si>
-    <t>2018-10-03</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>700</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Amount Pending</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -437,11 +422,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="2" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -483,23 +464,23 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1932</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>632</v>
       </c>
       <c r="G4">
-        <v>8400</v>
+        <v>-1932</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,30 +11,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Profit - whole - 2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+  <si>
+    <t>Customer - whole - 2018</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Dealer</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Amount Pending</t>
-  </si>
-  <si>
-    <t>Profit</t>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Bill Number</t>
+  </si>
+  <si>
+    <t>Party GSTIN</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Cylinder Size</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>Net Amount</t>
+  </si>
+  <si>
+    <t>Amount Paid</t>
+  </si>
+  <si>
+    <t>Amount Due</t>
+  </si>
+  <si>
+    <t>vt</t>
+  </si>
+  <si>
+    <t>wakad</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>12314</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -418,11 +472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:P4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="7" width="23" customWidth="1"/>
+    <col min="2" max="3" width="29" customWidth="1"/>
+    <col min="4" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="13" width="10" customWidth="1"/>
+    <col min="14" max="16" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -437,7 +499,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -459,28 +521,82 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1932</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>632</v>
-      </c>
-      <c r="G4">
-        <v>-1932</v>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,84 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t>Customer - whole - 2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Miscellaneous - 11 - 2018</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Customer Address</t>
-  </si>
-  <si>
-    <t>Bill Number</t>
-  </si>
-  <si>
-    <t>Party GSTIN</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Cylinder Size</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>CGST</t>
-  </si>
-  <si>
-    <t>SGST</t>
-  </si>
-  <si>
     <t>Net Amount</t>
   </si>
   <si>
-    <t>Amount Paid</t>
-  </si>
-  <si>
-    <t>Amount Due</t>
-  </si>
-  <si>
-    <t>vt</t>
-  </si>
-  <si>
-    <t>wakad</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>12314</t>
-  </si>
-  <si>
     <t>2018-11-01</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>2018-11-23</t>
+  </si>
+  <si>
+    <t>Petrol</t>
   </si>
 </sst>
 </file>
@@ -472,19 +421,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:E5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="13" width="10" customWidth="1"/>
-    <col min="14" max="16" width="23" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -499,7 +442,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,91 +455,33 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -11,33 +11,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Miscellaneous - 11 - 2018</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Profit - whole - 2019</t>
   </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Net Amount</t>
-  </si>
-  <si>
-    <t>2018-11-01</t>
-  </si>
-  <si>
-    <t>petrol</t>
-  </si>
-  <si>
-    <t>2018-11-23</t>
-  </si>
-  <si>
-    <t>Petrol</t>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Dealer</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Amount Pending</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
@@ -421,13 +418,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="2" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -442,7 +437,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,33 +450,37 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/temp.xlsx
+++ b/downloads/temp.xlsx
@@ -465,22 +465,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2350</v>
       </c>
     </row>
   </sheetData>
